--- a/TweetReactDjango.xlsx
+++ b/TweetReactDjango.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DoTQ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DoTQ\DoTQPrivate\src\Python\tweetme2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B6F6E-D24C-42D9-878E-9AEF706208DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE51E45-61BF-4BF7-A57A-FE890267B089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B170BC35-5E2E-4B11-A6B2-302B183BF43B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>#</t>
     <phoneticPr fontId="2"/>
@@ -370,76 +370,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ễ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> lo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n, KO nên ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y TH này:
-id="tweetme2" data-username="trangia61" data-can-tweet="false"</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>list.html</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1028,6 +958,240 @@
       </rPr>
       <t>a login acc&gt;</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>KO nên ch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y TH này vì d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ễ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n:
+id="tweetme2" data-username="trangia61" data-can-tweet="false"</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ProfileBadgeComponent</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>badge.js</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>* t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>i profile: apiProfileDetail()
+* ELSE: first_name of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>dotq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>id="tweetme2-profile-badge" data-username="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dotq</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>TH "* t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ồ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ạ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i profile: apiProfileDetail()"</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>profiles/username</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>profile_detail_view()</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>???</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1035,7 +1199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,6 +1276,28 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2481,10 +2667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE745C6D-14AD-4DA7-AAE5-32D2CE78C966}">
-  <dimension ref="A74:G97"/>
+  <dimension ref="A74:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2540,12 +2726,12 @@
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
-        <f t="shared" ref="A76:A97" si="0">ROW()-74</f>
+        <f t="shared" ref="A76:A104" si="0">ROW()-74</f>
         <v>2</v>
       </c>
       <c r="B76" s="2"/>
@@ -2669,7 +2855,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>14</v>
@@ -2710,11 +2896,11 @@
         <v>24</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
@@ -2730,7 +2916,7 @@
         <v>26</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -2748,7 +2934,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -2764,7 +2950,7 @@
         <v>35</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -2780,7 +2966,7 @@
         <v>31</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -2796,10 +2982,10 @@
         <v>33</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="G90" s="2"/>
     </row>
@@ -2834,7 +3020,7 @@
         <v>23</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -2847,13 +3033,13 @@
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G93" s="2"/>
     </row>
@@ -2863,16 +3049,16 @@
         <v>20</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -2885,10 +3071,10 @@
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -2901,27 +3087,147 @@
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F96" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" ht="36" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A102" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A103" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A104" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/TweetReactDjango.xlsx
+++ b/TweetReactDjango.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DoTQ\DoTQPrivate\src\Python\tweetme2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE51E45-61BF-4BF7-A57A-FE890267B089}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2101690-2EB1-427D-8D6C-D6EC7DF34C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B170BC35-5E2E-4B11-A6B2-302B183BF43B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>#</t>
     <phoneticPr fontId="2"/>
@@ -449,98 +449,6 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>ỉ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ệ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n tweet c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
-      <t>ủ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a login acc "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>username</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>ch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="163"/>
-      </rPr>
       <t>ạ</t>
     </r>
     <r>
@@ -1040,7 +948,26 @@
   </si>
   <si>
     <r>
-      <t>* t</t>
+      <t xml:space="preserve">id='tweetme2-profile-badge'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>data-username="{{ profile_un_from_viewspy }}"</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>ch</t>
     </r>
     <r>
       <rPr>
@@ -1050,18 +977,18 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>ồ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n t</t>
+      <t>ỉ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> hi</t>
     </r>
     <r>
       <rPr>
@@ -1071,28 +998,111 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>i profile: apiProfileDetail()
-* ELSE: first_name of "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n tweet c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a login acc "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
-      </rPr>
-      <t>dotq</t>
+        <scheme val="minor"/>
+      </rPr>
+      <t>username</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" (gi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ố</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ng TH #11)</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>* apiProfileDetail()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> 
+* ProfileBadge of "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>username</t>
     </r>
     <r>
       <rPr>
@@ -1104,22 +1114,81 @@
       </rPr>
       <t>"</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>id="tweetme2-profile-badge" data-username="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFC000"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; apiProfileFollowToggle()</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>api/profiles/username/follow (action="follow/unfollow")</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>hi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n follower,following, bio…
+ c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+      </rPr>
+      <t>ủ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a login acc "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>dotq</t>
+      <t>username</t>
     </r>
     <r>
       <rPr>
@@ -1136,7 +1205,7 @@
   </si>
   <si>
     <r>
-      <t>TH "* t</t>
+      <t>buttton hi</t>
     </r>
     <r>
       <rPr>
@@ -1146,18 +1215,24 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>ồ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>n t</t>
+      <t>ệ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n "Follow/Unfollow" </t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>x</t>
     </r>
     <r>
       <rPr>
@@ -1167,31 +1242,19 @@
         <family val="2"/>
         <charset val="163"/>
       </rPr>
-      <t>ạ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i profile: apiProfileDetail()"</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>profiles/username</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>profile_detail_view()</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>???</t>
+      <t>ử</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lí "apiProfileFollowToggle()"</t>
+    </r>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1199,7 +1262,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1289,19 +1352,12 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFC000"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2667,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE745C6D-14AD-4DA7-AAE5-32D2CE78C966}">
-  <dimension ref="A74:G104"/>
+  <dimension ref="A74:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2726,12 +2782,12 @@
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="2">
-        <f t="shared" ref="A76:A104" si="0">ROW()-74</f>
+        <f t="shared" ref="A76:A101" si="0">ROW()-74</f>
         <v>2</v>
       </c>
       <c r="B76" s="2"/>
@@ -2855,7 +2911,7 @@
         <v>9</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>14</v>
@@ -2896,11 +2952,11 @@
         <v>24</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F85" s="2"/>
       <c r="G85" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.45">
@@ -2916,7 +2972,7 @@
         <v>26</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -2934,7 +2990,7 @@
         <v>10</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -2950,7 +3006,7 @@
         <v>35</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -2966,7 +3022,7 @@
         <v>31</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -2982,10 +3038,10 @@
         <v>33</v>
       </c>
       <c r="E90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="G90" s="2"/>
     </row>
@@ -3049,7 +3105,7 @@
         <v>20</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
@@ -3079,7 +3135,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="72" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" ht="54" x14ac:dyDescent="0.45">
       <c r="A96" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3090,34 +3146,30 @@
         <v>43</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" ht="36" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A97" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="B97" s="2"/>
       <c r="C97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" ht="88.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3125,15 +3177,17 @@
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F98" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" ht="88.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3141,31 +3195,37 @@
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="100" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" ht="72" x14ac:dyDescent="0.45">
       <c r="A100" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="C100" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D100" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A101" s="2">
@@ -3173,61 +3233,11 @@
         <v>27</v>
       </c>
       <c r="B101" s="2"/>
-      <c r="C101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A102" s="2">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A103" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A104" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
